--- a/kanjimondai2.xlsx
+++ b/kanjimondai2.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayamakino/Desktop/生駒市プログラム研修/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4A9983-6601-234E-9238-359976F51287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22462716-83D0-AB4C-A7E9-EFD6DB3DBD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3240" windowWidth="25600" windowHeight="12680" xr2:uid="{9A2F3234-8003-7444-995A-A5D9C2B335AE}"/>
+    <workbookView xWindow="0" yWindow="3240" windowWidth="25600" windowHeight="12680" activeTab="2" xr2:uid="{9A2F3234-8003-7444-995A-A5D9C2B335AE}"/>
   </bookViews>
   <sheets>
     <sheet name="7class" sheetId="1" r:id="rId1"/>
+    <sheet name="6class" sheetId="2" r:id="rId2"/>
+    <sheet name="5class" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="356">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -2454,8 +2456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C2D9D1-70DA-DF44-802A-4FF7A1B6A5ED}">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4053,4 +4055,818 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503292ED-9B99-7945-A0C7-4A4CE25EDA51}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F11504-B7CE-5D40-ABD8-7D8E69D19701}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/kanjimondai2.xlsx
+++ b/kanjimondai2.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayamakino/Desktop/生駒市プログラム研修/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayamakino/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22462716-83D0-AB4C-A7E9-EFD6DB3DBD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C76ED03C-5EA1-274F-9BE6-982B1F5F9F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3240" windowWidth="25600" windowHeight="12680" activeTab="2" xr2:uid="{9A2F3234-8003-7444-995A-A5D9C2B335AE}"/>
+    <workbookView xWindow="0" yWindow="3240" windowWidth="25600" windowHeight="12680" activeTab="5" xr2:uid="{9A2F3234-8003-7444-995A-A5D9C2B335AE}"/>
   </bookViews>
   <sheets>
-    <sheet name="7class" sheetId="1" r:id="rId1"/>
-    <sheet name="6class" sheetId="2" r:id="rId2"/>
-    <sheet name="5class" sheetId="3" r:id="rId3"/>
+    <sheet name="7級" sheetId="1" r:id="rId1"/>
+    <sheet name="7級用プリント作成シート" sheetId="4" r:id="rId2"/>
+    <sheet name="6級" sheetId="2" r:id="rId3"/>
+    <sheet name="6級用プリント作成シート" sheetId="5" r:id="rId4"/>
+    <sheet name="5級" sheetId="3" r:id="rId5"/>
+    <sheet name="5級用プリント作成シート" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -4058,6 +4061,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FAFAFF-014E-DD49-84C3-7AF80D283B0B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503292ED-9B99-7945-A0C7-4A4CE25EDA51}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -4464,11 +4480,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1106EF82-5EC2-9843-9D2E-A7303255185A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F11504-B7CE-5D40-ABD8-7D8E69D19701}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -4869,4 +4898,17 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A592F98-0EBF-1843-BB9F-2E65A98E6075}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/kanjimondai2.xlsx
+++ b/kanjimondai2.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="7class" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="シート3" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="6class" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="シート4" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="5class" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="シート5" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="7級" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="7級用対策プリント作成シート" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="6級" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="6級用対策プリント作成シート" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="5級" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="5級用対策プリント作成シート" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
